--- a/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -268,17 +268,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -670,7 +661,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -741,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,7 +748,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -777,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -795,7 +786,7 @@
         <v>1666.66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>672.06</v>
       </c>
@@ -815,7 +806,7 @@
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -835,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -854,36 +845,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,660 +882,660 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18">
         <v>42005</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23">
+      <c r="D2" s="17"/>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="20">
         <v>10000</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20">
-        <v>0</v>
-      </c>
-      <c r="L2" s="20">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22">
-        <v>0</v>
-      </c>
-      <c r="P2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>31</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>42036</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="D3" s="17"/>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>833.33</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <v>9166.67</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="17">
         <v>101.92</v>
       </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
         <v>935.25</v>
       </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
         <v>935.25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>28</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>42064</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="D4" s="17"/>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
         <v>833.33</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <v>8333.34</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>92.05</v>
       </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
         <v>925.38</v>
       </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
         <v>925.38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>31</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>42095</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="D5" s="17"/>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
         <v>833.33</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>7500.01</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>101.92</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
         <v>935.25</v>
       </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
         <v>935.25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>30</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>42125</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D6" s="17"/>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>833.33</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>6666.68</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>73.97</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
         <v>907.3</v>
       </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
         <v>907.3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>31</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>42156</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="D7" s="17"/>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>833.33</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>5833.35</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>67.95</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
         <v>901.28</v>
       </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="22">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
         <v>901.28</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>30</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>42186</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="D8" s="17"/>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>833.33</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>5000.0200000000004</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>57.53</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
         <v>890.86</v>
       </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
         <v>890.86</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>31</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>42217</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="D9" s="17"/>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>833.33</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>4166.6899999999996</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>50.96</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <v>884.29</v>
       </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
         <v>884.29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>31</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>42248</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="D10" s="17"/>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>833.33</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>3333.36</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>42.47</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>875.8</v>
       </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
         <v>875.8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>30</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>42278</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="D11" s="17"/>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>833.33</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="21">
         <v>2500.0300000000002</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>32.880000000000003</v>
       </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
         <v>866.21</v>
       </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
         <v>866.21</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>31</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>42309</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="17"/>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>833.33</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>1666.7</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>25.48</v>
       </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
         <v>858.81</v>
       </c>
-      <c r="L12" s="20">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
         <v>858.81</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>30</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>42339</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="D13" s="17"/>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>833.33</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>833.37</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>16.440000000000001</v>
       </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <v>849.77</v>
       </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
         <v>849.77</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>31</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>42370</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="D14" s="17"/>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <v>833.37</v>
       </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
         <v>8.49</v>
       </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <v>841.86</v>
       </c>
-      <c r="L14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
         <v>841.86</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -92,6 +86,36 @@
   </si>
   <si>
     <t>870RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -152,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -177,6 +201,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -777,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -788,12 +816,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -808,24 +836,24 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
@@ -833,7 +861,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -841,23 +869,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -865,18 +893,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -902,22 +946,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1020,52 +1064,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1744,20 +1788,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>41974</v>
@@ -1765,7 +1809,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -1773,15 +1817,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>41974</v>
@@ -1789,7 +1833,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1797,15 +1841,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>41974</v>
@@ -1813,7 +1857,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -1824,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1837,12 +1881,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
@@ -1850,7 +1894,7 @@
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1858,7 +1902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1866,7 +1910,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8">
         <v>12</v>
@@ -1874,7 +1918,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1882,15 +1926,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3">
         <v>42095</v>
@@ -1898,7 +1942,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2">
         <v>10000</v>

--- a/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -166,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -300,6 +305,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -347,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +388,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +440,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -734,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -854,10 +896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,13 +917,14 @@
     <col min="11" max="11" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="14" max="14" width="11.140625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -921,17 +964,18 @@
       <c r="M1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18">
@@ -958,12 +1002,13 @@
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="19">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="17"/>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1001,17 +1046,18 @@
       <c r="M3" s="17">
         <v>0</v>
       </c>
-      <c r="N3" s="17">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
         <v>935.25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -1049,17 +1095,18 @@
       <c r="M4" s="17">
         <v>0</v>
       </c>
-      <c r="N4" s="17">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
         <v>925.38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -1097,17 +1144,18 @@
       <c r="M5" s="17">
         <v>0</v>
       </c>
-      <c r="N5" s="17">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
         <v>935.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -1145,17 +1193,18 @@
       <c r="M6" s="17">
         <v>0</v>
       </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
         <v>907.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -1193,17 +1242,18 @@
       <c r="M7" s="17">
         <v>0</v>
       </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
         <v>901.28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -1241,17 +1291,18 @@
       <c r="M8" s="17">
         <v>0</v>
       </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
         <v>890.86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -1289,17 +1340,18 @@
       <c r="M9" s="17">
         <v>0</v>
       </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
         <v>884.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -1337,17 +1389,18 @@
       <c r="M10" s="17">
         <v>0</v>
       </c>
-      <c r="N10" s="17">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
         <v>875.8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -1385,17 +1438,18 @@
       <c r="M11" s="17">
         <v>0</v>
       </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
         <v>866.21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -1433,17 +1487,18 @@
       <c r="M12" s="17">
         <v>0</v>
       </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
         <v>858.81</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -1481,17 +1536,18 @@
       <c r="M13" s="17">
         <v>0</v>
       </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
         <v>849.77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -1529,13 +1585,14 @@
       <c r="M14" s="17">
         <v>0</v>
       </c>
-      <c r="N14" s="17">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
         <v>841.86</v>
       </c>
     </row>
